--- a/검수/AC000120253047CE9_학생명단.xlsx
+++ b/검수/AC000120253047CE9_학생명단.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>윤지후</t>
+          <t>임시우</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -470,7 +470,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>신채원</t>
+          <t>문예준</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,14 +480,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>이민준</t>
+          <t>양유나</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>양지호</t>
+          <t>김수아</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -514,14 +514,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>정도윤</t>
+          <t>오예준</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -538,7 +538,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>오채원</t>
+          <t>양예린</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>조수아</t>
+          <t>유지후</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,14 +565,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>이우진</t>
+          <t>임채린</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -582,14 +582,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>임유나</t>
+          <t>홍지환</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -599,14 +599,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>홍하은</t>
+          <t>임하율</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -623,7 +623,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>김채린</t>
+          <t>최유나</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>이지호</t>
+          <t>한수아</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,14 +650,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>양지아</t>
+          <t>윤민준</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>장지호</t>
+          <t>장서준</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>류지후</t>
+          <t>윤채린</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,14 +701,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>서지호</t>
+          <t>강지환</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -725,7 +725,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>박민준</t>
+          <t>유지환</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -742,7 +742,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>홍지호</t>
+          <t>이지후</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -759,7 +759,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>조서윤</t>
+          <t>서하은</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>정채원</t>
+          <t>오도윤</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -786,14 +786,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>장예린</t>
+          <t>문유나</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
